--- a/Liouvilian/Liouvillian.xlsx
+++ b/Liouvilian/Liouvillian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EvaPei/Desktop/GT/Davidovic/TCL_GitHub_Access/Liouvilian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D332DC01-658E-F54B-B758-5E3EE4A6957B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0986BBE-C5D2-294A-95B3-37D0DE5C8414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{A4C1DDD4-5661-1B42-9D68-6595F58A7258}"/>
   </bookViews>
@@ -1064,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E587A19A-AB08-AA4B-B682-A18814E01932}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="144" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="150" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
